--- a/第09组/09项目计划表 .xlsx
+++ b/第09组/09项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -153,6 +153,26 @@
   </si>
   <si>
     <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成30%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成30%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成60%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成40%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于讨论排版与设计问题，下午做的时间不多，基本上都是到晚上才开始做</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,6 +322,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -834,8 +857,12 @@
       <c r="B21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
@@ -844,8 +871,10 @@
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
@@ -854,8 +883,10 @@
       <c r="B23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
@@ -864,8 +895,10 @@
       <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
@@ -874,8 +907,10 @@
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
@@ -892,7 +927,7 @@
       <c r="D27" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A26:D27"/>
     <mergeCell ref="A1:D1"/>
@@ -900,6 +935,7 @@
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D21:D25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第09组/09项目计划表 .xlsx
+++ b/第09组/09项目计划表 .xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>吴陪宁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>根据需求用例文档，PC端的界面设
 计的，编写用例规约（系统管理员功能）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -152,35 +148,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>完成30%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成40%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成20%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成60%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴培宁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于讨论排版与设计问题，下午做的时间不多，基本上都是到晚上才开始做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>总结：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成30%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成30%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成60%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成40%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于讨论排版与设计问题，下午做的时间不多，基本上都是到晚上才开始做</t>
+    <t>日期：2018.10.11 第六周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据需求用例文档，继续完成pc端的界面设计并编写用例规约（已经过小组讨论只保留一部分功能）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据需求用例文档，继续完成移动端的界面设
+计的，编写用例规约（普通用户功能）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据需求用例文档，继续完成移动端的界面设
+计的，编写用例规约（系统管理员功能）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据需求用例文档，继续完成移动端的界面设
+计的，编写用例规约（群管理员功能）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据需求用例文档，继续完成PC端的界面设
+计的，编写用例规约（系统管理员功能）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +336,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -322,9 +353,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -341,7 +369,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -415,7 +443,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -450,7 +477,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -626,14 +652,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -642,15 +668,15 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -664,7 +690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="27">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -676,7 +702,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -688,7 +714,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="27">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -700,7 +726,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="27">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -712,7 +738,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -724,29 +750,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -760,11 +786,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -772,37 +798,37 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -814,29 +840,29 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -850,21 +876,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="40.5">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:4" ht="54">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -872,62 +898,150 @@
         <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="54">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="54">
+      <c r="A24" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" ht="40.5">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="40.5">
+      <c r="A30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="54">
+      <c r="A31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="54">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="54">
+      <c r="A33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="54">
+      <c r="A34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D36"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A26:D27"/>
     <mergeCell ref="A1:D1"/>
@@ -944,12 +1058,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -958,12 +1072,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
